--- a/engajamento_cadernos_disciplina5.xlsx
+++ b/engajamento_cadernos_disciplina5.xlsx
@@ -462,7 +462,7 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>0.327472306569259</v>
+        <v>0.3690815611690796</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -473,7 +473,7 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>0.2771043995260652</v>
+        <v>0.4771425537982135</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -484,7 +484,7 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>0.2361917460802831</v>
+        <v>0.3341587407122631</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -495,7 +495,7 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>0.2056428568286712</v>
+        <v>0.4536773205483691</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -506,7 +506,7 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>0.1840386015245342</v>
+        <v>0.3318261050981052</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -517,7 +517,7 @@
         <v>7</v>
       </c>
       <c r="C7">
-        <v>0.5332128024991299</v>
+        <v>0.3465738823016777</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -528,7 +528,7 @@
         <v>8</v>
       </c>
       <c r="C8">
-        <v>0.1743054081245865</v>
+        <v>0.4179108153570307</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -539,7 +539,7 @@
         <v>9</v>
       </c>
       <c r="C9">
-        <v>0.2182592407425988</v>
+        <v>0.3702067156649563</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -550,7 +550,7 @@
         <v>10</v>
       </c>
       <c r="C10">
-        <v>0.3115325248161552</v>
+        <v>0.4408704480605816</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -561,7 +561,7 @@
         <v>11</v>
       </c>
       <c r="C11">
-        <v>0.1318993705426594</v>
+        <v>0.3347437066860565</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -572,7 +572,7 @@
         <v>12</v>
       </c>
       <c r="C12">
-        <v>0.3963976919712647</v>
+        <v>0.4219262987243912</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -583,7 +583,7 @@
         <v>13</v>
       </c>
       <c r="C13">
-        <v>0.3023223638487513</v>
+        <v>0.4692907679594063</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -594,7 +594,7 @@
         <v>14</v>
       </c>
       <c r="C14">
-        <v>0.2157679905207344</v>
+        <v>0.4306240756002559</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -605,7 +605,7 @@
         <v>15</v>
       </c>
       <c r="C15">
-        <v>0.2354851461889809</v>
+        <v>0.365541752306202</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -616,7 +616,7 @@
         <v>16</v>
       </c>
       <c r="C16">
-        <v>0.3005749890277015</v>
+        <v>0.3930634567934926</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -627,7 +627,7 @@
         <v>17</v>
       </c>
       <c r="C17">
-        <v>0.3922784391534391</v>
+        <v>0.414639050402166</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -638,7 +638,7 @@
         <v>18</v>
       </c>
       <c r="C18">
-        <v>0.2205581350210696</v>
+        <v>0.3807190971691541</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -649,7 +649,7 @@
         <v>19</v>
       </c>
       <c r="C19">
-        <v>0.3409038563595443</v>
+        <v>0.5546810199847799</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -660,7 +660,7 @@
         <v>20</v>
       </c>
       <c r="C20">
-        <v>0.1383666936256062</v>
+        <v>0.4671580843164505</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -671,7 +671,7 @@
         <v>21</v>
       </c>
       <c r="C21">
-        <v>0.2951734347297466</v>
+        <v>0.331190978343616</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -682,7 +682,7 @@
         <v>22</v>
       </c>
       <c r="C22">
-        <v>0.2637216295947934</v>
+        <v>0.4402680554968882</v>
       </c>
     </row>
   </sheetData>
